--- a/Tables/nll_1d.xlsx
+++ b/Tables/nll_1d.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giorgio\Desktop\Master\THESIS CODES ETC\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3318AF-D4C7-491C-9F42-EFBD4E96A9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DC9697-DF06-46BC-A76C-7F45D097783D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9307"/>
+    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nll_1d" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,8 +551,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -598,7 +599,32 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -612,18 +638,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I8" totalsRowShown="0">
-  <autoFilter ref="A1:I8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I8" totalsRowShown="0">
+  <autoFilter ref="A1:I8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="^GSPC"/>
-    <tableColumn id="3" name="^DJI"/>
-    <tableColumn id="4" name="^IXIC"/>
-    <tableColumn id="5" name="^RUT"/>
-    <tableColumn id="6" name="^SSMI"/>
-    <tableColumn id="7" name="^OEX"/>
-    <tableColumn id="8" name="^N225"/>
-    <tableColumn id="9" name="^FTSE"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="^GSPC" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="^DJI" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="^IXIC" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="^RUT" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="^SSMI" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="^OEX" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="^N225" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="^FTSE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -925,11 +951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -970,28 +996,28 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2125.37622070312</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2088.81005859375</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2531.65087890625</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2701.45068359375</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2035.45056152343</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>2165.712890625</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>2525.48315429687</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>2163.61303710937</v>
       </c>
     </row>
@@ -999,28 +1025,28 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2081.93359375</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2061.93334960937</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2457.77001953125</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2607.01538085937</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1980.86547851562</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>2113.7197265625</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2484.48266601562</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>2130.1181640625</v>
       </c>
     </row>
@@ -1028,28 +1054,28 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2146.037109375</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2128.81494140625</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2865.05078125</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>2706.13916015625</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2010.75244140625</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2156.244140625</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>2532.57543945312</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>2156.7021484375</v>
       </c>
     </row>
@@ -1057,28 +1083,28 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2090.0398697578298</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2069.40508728852</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>2494.3724066004802</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2643.4764455356099</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1998.5384586258101</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>2112.7827410780601</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>2499.0204479110498</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>2163.3766570933799</v>
       </c>
     </row>
@@ -1086,28 +1112,28 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2085.87255859375</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2064.6923828125</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>2487.15380859375</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2637.13525390625</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2037.20556640625</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2109.70361328125</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>2512.73168945312</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>2158.30078125</v>
       </c>
     </row>
@@ -1115,28 +1141,28 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2075.14526367187</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2048.8515625</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2472.44750976562</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2621.75805664062</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1998.44836425781</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>2105.85717773437</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>2488.6044921875</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>2136.5029296875</v>
       </c>
     </row>
@@ -1144,28 +1170,28 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2167.97021484375</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>2140.71923828125</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>2584.29443359375</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>2699.61791992187</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>2110.88500976562</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2194.04858398437</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>2580.30859375</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>2216.93701171875</v>
       </c>
     </row>
